--- a/WebAppCore/wwwroot/templates/ProductImportTemplate.xlsx
+++ b/WebAppCore/wwwroot/templates/ProductImportTemplate.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoct\Documents\Visual Studio 2017\Projects\TeduCore\TeduCore.WebApp\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19416" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Description</t>
   </si>
@@ -57,19 +57,28 @@
   </si>
   <si>
     <t>Home Flag</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,13 +101,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -112,14 +142,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K23" totalsRowShown="0">
-  <autoFilter ref="A1:K23"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L74" totalsRowShown="0">
+  <autoFilter ref="A1:L74"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="4" name="Original Price"/>
     <tableColumn id="5" name="Price"/>
     <tableColumn id="6" name="Promotion Price"/>
+    <tableColumn id="3" name="Image" dataDxfId="0"/>
     <tableColumn id="8" name="Content"/>
     <tableColumn id="9" name="Seo Keywords"/>
     <tableColumn id="10" name="Seo Description"/>
@@ -174,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +240,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,28 +425,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -432,23 +464,245 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F74" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
